--- a/excel-testcase/ArditGashi-TestCase.xlsx
+++ b/excel-testcase/ArditGashi-TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ardit\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{999F3C9F-BB63-490C-994D-AA108CAFC6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CE8226-0E25-400B-A32B-0E63784765F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F683F43B-74B4-4013-A8F5-A7AE1C6F748F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -240,6 +240,48 @@
   </si>
   <si>
     <t>TEST CASES</t>
+  </si>
+  <si>
+    <t>Register_001</t>
+  </si>
+  <si>
+    <t>Registration of a New User</t>
+  </si>
+  <si>
+    <t>Visit registration page, Fill registration form, Click Register</t>
+  </si>
+  <si>
+    <t>Open the ParaBank register page.</t>
+  </si>
+  <si>
+    <t>User is registered successfully</t>
+  </si>
+  <si>
+    <t>Generated Username, Password, Fake First Name, Fake Last Name, Fake Street, Fake City, Fake State, Fake Zip Code, Fake Phone Number, Fake SSN</t>
+  </si>
+  <si>
+    <t>BillPay_001</t>
+  </si>
+  <si>
+    <t>Bill Payment Attempt with Registered User</t>
+  </si>
+  <si>
+    <t>Navigate to Bill Pay page, Fill payment form, Click "Send Payment" button</t>
+  </si>
+  <si>
+    <t>Payment has failed</t>
+  </si>
+  <si>
+    <t>Payment is not completed, and an error is displayed</t>
+  </si>
+  <si>
+    <t>Payment is not completed, Error displayed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Fills out the payment form with the provided data.</t>
   </si>
 </sst>
 </file>
@@ -247,7 +289,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -317,7 +359,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +405,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,9 +495,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -459,24 +512,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -491,13 +532,46 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -839,550 +913,664 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4915471-AB41-4AF2-8388-EC1E6A509F0A}">
-  <dimension ref="B2:K25"/>
+  <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="4" spans="2:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="19">
         <v>45417</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="192" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="19"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:11" ht="96" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="J10"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="12" spans="2:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="15">
         <v>45417</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="14" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="15" t="s">
+      <c r="H15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="16"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="15" t="s">
+      <c r="H16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="16"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="15" t="s">
+      <c r="H17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="16"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="15" t="s">
+      <c r="H18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="16"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:11" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="15" t="s">
+      <c r="H19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="16"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="15" t="s">
+      <c r="H20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="16"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="15" t="s">
+      <c r="H21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="16"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="15" t="s">
+      <c r="H22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="16"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="15" t="s">
+      <c r="F23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="15" t="s">
+      <c r="H23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="16"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="15" t="s">
+      <c r="H24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="16"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="15" t="s">
+      <c r="F25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="20" t="s">
+      <c r="H25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="20"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="28" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="B28" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="22">
+        <v>45417</v>
+      </c>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+    </row>
+    <row r="30" spans="2:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B30" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="2:11" ht="76.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:K28"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I12:K12"/>
